--- a/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
+++ b/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T11:06:48+00:00</t>
+    <t>2022-11-22T11:12:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
+++ b/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T11:12:53+00:00</t>
+    <t>2022-11-22T13:23:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
+++ b/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:23:01+00:00</t>
+    <t>2022-11-22T14:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
+++ b/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T14:31:57+00:00</t>
+    <t>2022-11-23T06:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
+++ b/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T06:26:10+00:00</t>
+    <t>2022-11-23T06:27:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
+++ b/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T06:27:07+00:00</t>
+    <t>2022-11-25T10:22:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
+++ b/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T10:22:52+00:00</t>
+    <t>2022-11-25T13:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
+++ b/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-conditions-or-comorbidity</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-conditions-or-comorbidity</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T13:25:06+00:00</t>
+    <t>2022-11-25T14:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,7 +450,7 @@
     <t>extCovid19ConditionsOrComorbiditiesPresent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-conditions-or-comorbidities-present}
+    <t xml:space="preserve">Extension {https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-conditions-or-comorbidities-present}
 </t>
   </si>
   <si>
@@ -669,7 +669,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-conditions-comorbidity</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-conditions-comorbidity</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1463,7 +1463,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.69140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.29296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
+++ b/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-conditions-or-comorbidity</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-conditions-or-comorbidity</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T14:14:34+00:00</t>
+    <t>2022-11-28T06:50:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,7 +450,7 @@
     <t>extCovid19ConditionsOrComorbiditiesPresent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-conditions-or-comorbidities-present}
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-conditions-or-comorbidities-present}
 </t>
   </si>
   <si>
@@ -669,7 +669,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-conditions-comorbidity</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-conditions-comorbidity</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1463,7 +1463,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.29296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.69140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
+++ b/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T06:50:59+00:00</t>
+    <t>2022-11-28T08:05:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
+++ b/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T08:05:02+00:00</t>
+    <t>2022-11-28T08:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
+++ b/StructureDefinition-covid19-conditions-or-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T08:23:30+00:00</t>
+    <t>2022-11-28T09:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
